--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAA9B0C-B3CB-4D8E-A49B-508052931951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3628913A-E4DE-47B5-B24F-3E9FA04CEA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="todos" sheetId="2" r:id="rId1"/>
-    <sheet name="Chamada" sheetId="1" r:id="rId2"/>
+    <sheet name="Chamada" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Alunos</t>
   </si>
@@ -41,132 +40,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>Felipe Augusto dos Santos</t>
-  </si>
-  <si>
-    <t>Mirella França de Almeida</t>
-  </si>
-  <si>
-    <t>Carlos Henrique de Oliveira Siqueira</t>
-  </si>
-  <si>
-    <t>Carlos Henrique Jesus de Almeida Filho</t>
-  </si>
-  <si>
-    <t>Cicero Ruan Soares Baborsa</t>
-  </si>
-  <si>
-    <t>Eretz Israel Colares Caldas Maciel</t>
-  </si>
-  <si>
-    <t>Erick da Silva de Jesus</t>
-  </si>
-  <si>
-    <t>João Vitor Castro Viana Marques</t>
-  </si>
-  <si>
-    <t>Denyjan Magno Santos da Silva</t>
-  </si>
-  <si>
-    <t>Alef Santos da Costa</t>
-  </si>
-  <si>
-    <t>Alefe de Magalhães Vigatto</t>
-  </si>
-  <si>
-    <t>Allan Diego Fernandes da Silva Parreira</t>
-  </si>
-  <si>
-    <t>Ana Clara Ortiz Ochner</t>
-  </si>
-  <si>
-    <t>Bruno Otávio da Silva Ramos</t>
-  </si>
-  <si>
-    <t>Camilla Piva da Silva</t>
-  </si>
-  <si>
-    <t>Carla Carota Mozena</t>
-  </si>
-  <si>
-    <t>Carlos Augusto Rodrigues</t>
-  </si>
-  <si>
-    <t>Gabriella Godoi Avila</t>
-  </si>
-  <si>
-    <t>Guilherme Carvalho de Oliveira</t>
-  </si>
-  <si>
-    <t>Halina Yelena Volkov</t>
-  </si>
-  <si>
-    <t>Igor Henrique Gonçalves</t>
-  </si>
-  <si>
-    <t>Isac Catarino Natividade</t>
-  </si>
-  <si>
-    <t>Isamara Lorraine Bento</t>
-  </si>
-  <si>
-    <t>Jaqueline de Faria Rodrigues</t>
-  </si>
-  <si>
-    <t>Karina Corrêa Shifferli Santos</t>
-  </si>
-  <si>
-    <t>Leticia Aparecido Hofman de Souza</t>
-  </si>
-  <si>
-    <t>Maria Cecília Evangelista Oliveira</t>
-  </si>
-  <si>
-    <t>Maria Eduarda da Silva Moraes</t>
-  </si>
-  <si>
-    <t>Otávio Bassi de Freitas</t>
-  </si>
-  <si>
-    <t>Otavio Lima Bueno</t>
-  </si>
-  <si>
-    <t>Paulo Otávio Rodrigues Silva</t>
-  </si>
-  <si>
-    <t>Pedro Henrique Pereira Sanches</t>
-  </si>
-  <si>
-    <t>Rafael David Paes Landim Rodrigues da Silva</t>
-  </si>
-  <si>
-    <t>Vinicius Manzano dos Santos</t>
-  </si>
-  <si>
-    <t>Walyson Lima Pompeu</t>
-  </si>
-  <si>
-    <t>Yulian Carlo Diaz Vannuchi</t>
-  </si>
-  <si>
-    <t>Maria Fernanda Mattoso Oliveira Rello</t>
-  </si>
-  <si>
-    <t>João Victor Colosso</t>
-  </si>
-  <si>
-    <t>Richard Matheus Pinesi</t>
-  </si>
-  <si>
-    <t>Bryan Beckham de Alencar de Souza</t>
-  </si>
-  <si>
-    <t>Aluno</t>
-  </si>
-  <si>
-    <t>Orden</t>
   </si>
   <si>
     <t>Arthur da Silva Kampine</t>
@@ -706,370 +579,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.7109375" style="1"/>
-    <col min="6" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="1"/>
+    <col min="6" max="6" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1091,13 +618,17 @@
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1143,15 +674,27 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="2">
+        <v>45692</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45693</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45699</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45700</v>
+      </c>
     </row>
     <row r="3" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1159,7 +702,7 @@
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1167,7 +710,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1175,7 +718,7 @@
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -1183,7 +726,7 @@
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -1191,7 +734,7 @@
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>6</v>
@@ -1199,7 +742,7 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>7</v>
@@ -1207,7 +750,7 @@
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>8</v>
@@ -1215,7 +758,7 @@
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>9</v>
@@ -1223,7 +766,7 @@
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
@@ -1231,7 +774,7 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>11</v>
@@ -1239,7 +782,7 @@
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>12</v>
@@ -1247,7 +790,7 @@
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
         <v>13</v>
@@ -1255,7 +798,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1">
         <v>14</v>
@@ -1263,7 +806,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1">
         <v>15</v>
@@ -1271,7 +814,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1">
         <v>16</v>
@@ -1279,7 +822,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>17</v>
@@ -1287,7 +830,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>18</v>
@@ -1295,7 +838,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>19</v>
@@ -1303,16 +846,16 @@
     </row>
     <row r="23" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -1320,10 +863,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -1331,10 +874,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -1342,10 +885,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -1353,10 +896,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -1364,10 +907,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -1377,10 +920,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1388,10 +931,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>4</v>
@@ -1399,18 +942,18 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -1418,10 +961,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -1429,10 +972,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -1440,10 +983,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -1451,10 +994,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -1462,10 +1005,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -1473,10 +1016,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -1484,10 +1027,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -1504,8 +1047,6 @@
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2025\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3628913A-E4DE-47B5-B24F-3E9FA04CEA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DF7986-3381-48C2-8566-BE592C8751F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>Alunos</t>
   </si>
@@ -42,9 +42,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Arthur da Silva Kampine</t>
-  </si>
-  <si>
     <t>Arthur Souza de Oliveira</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Jessé Oliveira da Silva</t>
   </si>
   <si>
-    <t>Jhonatha Wendell Santana Silva</t>
-  </si>
-  <si>
     <t>João Pedro Nepomuceno dos Santos</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
   </si>
   <si>
     <t>Larissa Vitoria Alves dos Santos</t>
-  </si>
-  <si>
-    <t>Leonardo de Souza Santos</t>
   </si>
   <si>
     <t>Lizzie de Sousa</t>
@@ -580,13 +571,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AQ40"/>
+  <dimension ref="A1:AQ37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,16 +609,16 @@
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -689,15 +680,18 @@
     </row>
     <row r="3" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
@@ -707,152 +701,206 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>6</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>7</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>8</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>9</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>11</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1">
         <v>12</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1">
         <v>13</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>14</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
         <v>15</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="1">
-        <v>17</v>
-      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="6"/>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1">
         <v>20</v>
@@ -863,32 +911,34 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1">
         <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -896,10 +946,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
@@ -907,23 +957,18 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1">
-        <v>21</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -931,29 +976,32 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -961,10 +1009,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -972,21 +1020,21 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -994,65 +1042,32 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="1">
-        <v>21</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="1">
-        <v>21</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>21</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A24:A40">
-    <sortCondition ref="A24:A40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:A37">
+    <sortCondition ref="A21:A37"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O37:O40">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+  <conditionalFormatting sqref="O34:O37">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DF7986-3381-48C2-8566-BE592C8751F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E6ADCD-C70B-47D8-AE59-C16930FE9FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>Alunos</t>
   </si>
@@ -577,7 +577,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,6 +693,9 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -704,6 +707,9 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -715,6 +721,9 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -726,6 +735,9 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -737,6 +749,9 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -748,6 +763,9 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -759,6 +777,9 @@
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -770,6 +791,9 @@
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -781,6 +805,9 @@
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -792,6 +819,9 @@
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -803,6 +833,9 @@
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -814,6 +847,9 @@
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -825,6 +861,9 @@
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -836,6 +875,9 @@
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -847,6 +889,9 @@
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -858,6 +903,9 @@
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -961,6 +1009,12 @@
       </c>
       <c r="B29" s="1">
         <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2025\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DF7986-3381-48C2-8566-BE592C8751F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A985BD-C7F0-4C98-BF66-C5ED269A3E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>Alunos</t>
   </si>
@@ -577,7 +577,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,26 +859,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1">
         <v>18</v>
@@ -886,10 +883,13 @@
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1">
         <v>19</v>
@@ -897,10 +897,13 @@
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
         <v>20</v>
@@ -908,34 +911,41 @@
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1">
         <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1">
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1">
         <v>23</v>
@@ -943,24 +953,38 @@
       <c r="C27" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1">
         <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1">
         <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -973,6 +997,9 @@
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -984,6 +1011,9 @@
       <c r="C31" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -995,8 +1025,11 @@
       <c r="C32" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -1006,8 +1039,11 @@
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -1017,8 +1053,11 @@
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -1028,8 +1067,11 @@
       <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>32</v>
       </c>
@@ -1039,8 +1081,11 @@
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1050,10 +1095,13 @@
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:A37">
-    <sortCondition ref="A21:A37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:A37">
+    <sortCondition ref="A22:A37"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A985BD-C7F0-4C98-BF66-C5ED269A3E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA86BCD-5E64-47C6-B3C7-DAB63F8E7AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>Alunos</t>
   </si>
@@ -141,9 +141,6 @@
     <t>TURMA B</t>
   </si>
   <si>
-    <t>Lais</t>
-  </si>
-  <si>
     <t>Turma A</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Qua</t>
+  </si>
+  <si>
+    <t>Lais Nascimento Andrade</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,16 +609,16 @@
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -680,7 +680,7 @@
     </row>
     <row r="3" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -861,10 +861,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1">
         <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA86BCD-5E64-47C6-B3C7-DAB63F8E7AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9CD7FF-ADC2-4048-B3A8-56983352CDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
   <si>
     <t>Alunos</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Lais Nascimento Andrade</t>
+  </si>
+  <si>
+    <t>5P</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2025\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9CD7FF-ADC2-4048-B3A8-56983352CDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49021990-D32D-469F-9540-6E896FA02969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
   <si>
     <t>Alunos</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,6 +696,9 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -707,6 +710,9 @@
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -718,6 +724,9 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -729,6 +738,9 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -740,6 +752,9 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -751,6 +766,9 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -762,6 +780,9 @@
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -773,6 +794,9 @@
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -784,6 +808,9 @@
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -795,6 +822,9 @@
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -806,6 +836,9 @@
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -817,6 +850,9 @@
       <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -828,6 +864,9 @@
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -839,6 +878,9 @@
       <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -850,6 +892,9 @@
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -861,6 +906,9 @@
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -871,6 +919,9 @@
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49021990-D32D-469F-9540-6E896FA02969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926CA181-A05D-4399-AE79-10BD41E32F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="43">
   <si>
     <t>Alunos</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,6 +699,9 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -713,6 +716,9 @@
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -727,6 +733,9 @@
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -741,6 +750,9 @@
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -755,6 +767,9 @@
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -769,6 +784,9 @@
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -783,6 +801,9 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -797,6 +818,9 @@
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -811,6 +835,9 @@
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -825,6 +852,9 @@
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -839,6 +869,9 @@
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -853,6 +886,9 @@
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -867,6 +903,9 @@
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -881,6 +920,9 @@
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -895,6 +937,9 @@
       <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -909,6 +954,9 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -921,6 +969,9 @@
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2025\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49021990-D32D-469F-9540-6E896FA02969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC4D0D8-4AF8-49C6-940D-36FD1E23C214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
   <si>
     <t>Alunos</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,6 +699,9 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -713,6 +716,9 @@
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -727,6 +733,9 @@
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -741,6 +750,9 @@
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -755,6 +767,9 @@
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -769,6 +784,9 @@
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -783,6 +801,9 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -797,6 +818,9 @@
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -811,6 +835,9 @@
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -825,6 +852,9 @@
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -839,6 +869,9 @@
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -853,6 +886,9 @@
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -867,6 +903,9 @@
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -881,6 +920,9 @@
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -895,6 +937,9 @@
       <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -909,6 +954,9 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -923,6 +971,9 @@
       <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -943,6 +994,9 @@
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -957,6 +1011,9 @@
       <c r="D23" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -971,6 +1028,9 @@
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -985,6 +1045,9 @@
       <c r="D25" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -999,6 +1062,9 @@
       <c r="D26" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -1013,6 +1079,9 @@
       <c r="D27" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
@@ -1029,6 +1098,9 @@
       <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1043,6 +1115,9 @@
       <c r="D29" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1057,6 +1132,9 @@
       <c r="D30" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -1071,6 +1149,9 @@
       <c r="D31" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1085,8 +1166,11 @@
       <c r="D32" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -1099,8 +1183,11 @@
       <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -1113,8 +1200,11 @@
       <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -1127,8 +1217,11 @@
       <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>32</v>
       </c>
@@ -1141,8 +1234,11 @@
       <c r="D36" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1153,6 +1249,9 @@
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC4D0D8-4AF8-49C6-940D-36FD1E23C214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224A0D63-E46F-41B4-A1CE-94AB0EC02006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="43">
   <si>
     <t>Alunos</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,6 +923,9 @@
       <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -997,6 +1000,9 @@
       <c r="E22" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1014,6 +1020,9 @@
       <c r="E23" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F23" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -1031,6 +1040,9 @@
       <c r="E24" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1048,6 +1060,9 @@
       <c r="E25" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -1065,6 +1080,9 @@
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -1082,6 +1100,9 @@
       <c r="E27" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
@@ -1101,6 +1122,9 @@
       <c r="E28" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1118,6 +1142,9 @@
       <c r="E29" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1135,6 +1162,9 @@
       <c r="E30" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -1152,6 +1182,9 @@
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1169,8 +1202,11 @@
       <c r="E32" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -1186,8 +1222,11 @@
       <c r="E33" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -1203,8 +1242,11 @@
       <c r="E34" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -1220,8 +1262,11 @@
       <c r="E35" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>32</v>
       </c>
@@ -1237,8 +1282,11 @@
       <c r="E36" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1252,6 +1300,9 @@
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2025\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252FFFC6-5A6B-4317-8F8A-7F509B8533B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010EEFAB-2CD5-48F7-8481-BDEDADB4786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="43">
   <si>
     <t>Alunos</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,9 @@
       <c r="F1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -705,6 +707,9 @@
       <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -725,6 +730,9 @@
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -745,6 +753,9 @@
       <c r="F6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -765,6 +776,9 @@
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -785,6 +799,9 @@
       <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -805,6 +822,9 @@
       <c r="F9" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -825,6 +845,9 @@
       <c r="F10" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -845,6 +868,9 @@
       <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -865,6 +891,9 @@
       <c r="F12" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -885,6 +914,9 @@
       <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G13" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -905,6 +937,9 @@
       <c r="F14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -925,6 +960,9 @@
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -945,6 +983,9 @@
       <c r="F16" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -965,6 +1006,9 @@
       <c r="F17" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -985,6 +1029,9 @@
       <c r="F18" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1005,6 +1052,9 @@
       <c r="F19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G19" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1023,6 +1073,9 @@
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/ds/3des/frequencia.xlsx
+++ b/ds/3des/frequencia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2025\ds\3des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellington\senai2025\ds\3des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010EEFAB-2CD5-48F7-8481-BDEDADB4786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BAB451-7E25-4505-9D98-EBC61F80B589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chamada" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="43">
   <si>
     <t>Alunos</t>
   </si>
@@ -580,7 +580,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,6 +682,9 @@
       <c r="F2" s="2">
         <v>45700</v>
       </c>
+      <c r="G2" s="2">
+        <v>45706</v>
+      </c>
     </row>
     <row r="3" spans="1:43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1104,6 +1107,9 @@
       <c r="F22" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -1124,6 +1130,9 @@
       <c r="F23" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G23" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -1144,6 +1153,9 @@
       <c r="F24" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1164,6 +1176,9 @@
       <c r="F25" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -1184,6 +1199,9 @@
       <c r="F26" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G26" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -1204,6 +1222,9 @@
       <c r="F27" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G27" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
@@ -1226,6 +1247,9 @@
       <c r="F28" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G28" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1246,6 +1270,9 @@
       <c r="F29" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -1266,6 +1293,9 @@
       <c r="F30" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -1286,6 +1316,9 @@
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1306,8 +1339,11 @@
       <c r="F32" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -1326,8 +1362,11 @@
       <c r="F33" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -1346,8 +1385,11 @@
       <c r="F34" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -1366,8 +1408,11 @@
       <c r="F35" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>32</v>
       </c>
@@ -1386,8 +1431,11 @@
       <c r="F36" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1404,6 +1452,9 @@
         <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>3</v>
       </c>
     </row>
